--- a/assets/trim 1/1_Gestion_de_proyecto/2_Levantamiento_de_informacion/1_recoleccion_informacion v1.xlsx
+++ b/assets/trim 1/1_Gestion_de_proyecto/2_Levantamiento_de_informacion/1_recoleccion_informacion v1.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1CE16D2-5C4F-4C77-BDFC-3D1013F7690A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BCECCA-DB96-4C8B-91FA-568618B5C3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="712" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="88">
   <si>
     <t>HOJA DE CONTROL</t>
   </si>
@@ -142,9 +142,6 @@
   </si>
   <si>
     <t>Planeación de la Recolección</t>
-  </si>
-  <si>
-    <t>Sistema de gestion de citas</t>
   </si>
   <si>
     <t>19/02/2023</t>
@@ -1842,12 +1839,47 @@
     <xf numFmtId="0" fontId="34" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1862,49 +1894,26 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1913,18 +1922,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2270,9 +2267,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2310,9 +2307,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2345,26 +2342,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2397,26 +2377,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2592,8 +2555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:IV87"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28:E28"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -2618,55 +2581,55 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
     </row>
     <row r="7" spans="1:11" ht="30">
-      <c r="C7" s="108" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="109"/>
-      <c r="E7" s="110"/>
+      <c r="C7" s="105" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="106"/>
+      <c r="E7" s="107"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="30">
-      <c r="C8" s="108" t="s">
+      <c r="C8" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="109"/>
-      <c r="E8" s="110"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="107"/>
     </row>
     <row r="10" spans="1:11" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="112"/>
-      <c r="B10" s="112"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="112"/>
+      <c r="A10" s="109"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickTop="1"/>
     <row r="13" spans="1:11" ht="30">
-      <c r="B13" s="111" t="s">
+      <c r="B13" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
     </row>
     <row r="15" spans="1:11" ht="15" thickBot="1">
       <c r="B15" s="2"/>
@@ -2677,72 +2640,72 @@
       <c r="B16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="113" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="113"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="113"/>
+      <c r="C16" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
     </row>
     <row r="17" spans="1:16" ht="18">
       <c r="B17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="114" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="114"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="114"/>
+      <c r="C17" s="101" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
     </row>
     <row r="18" spans="1:16" ht="18">
       <c r="B18" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="114" t="s">
+      <c r="C18" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="114"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="114"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
     </row>
     <row r="19" spans="1:16" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A19" s="29"/>
       <c r="B19" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="115" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
+      <c r="C19" s="102" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
     </row>
     <row r="20" spans="1:16" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="A20" s="29"/>
       <c r="B20" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="116" t="s">
+      <c r="C20" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="116"/>
+      <c r="D20" s="103"/>
       <c r="E20" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="19.899999999999999" customHeight="1">
       <c r="A21" s="29"/>
-      <c r="B21" s="105" t="s">
+      <c r="B21" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="98" t="s">
+      <c r="C21" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="98"/>
+      <c r="D21" s="118"/>
       <c r="E21" s="9" t="s">
         <v>10</v>
       </c>
@@ -2752,9 +2715,9 @@
     </row>
     <row r="22" spans="1:16" ht="36.75" thickBot="1">
       <c r="A22" s="29"/>
-      <c r="B22" s="106"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="99"/>
+      <c r="B22" s="117"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="111"/>
       <c r="E22" s="10" t="s">
         <v>11</v>
       </c>
@@ -2784,10 +2747,10 @@
       <c r="C26" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="101" t="s">
+      <c r="D26" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="101"/>
+      <c r="E26" s="112"/>
       <c r="F26" s="16" t="s">
         <v>17</v>
       </c>
@@ -2799,68 +2762,68 @@
       <c r="C27" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="102" t="s">
-        <v>86</v>
-      </c>
-      <c r="E27" s="102"/>
+      <c r="D27" s="113" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="113"/>
       <c r="F27" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="25.5" customHeight="1">
       <c r="B28" s="20"/>
       <c r="C28" s="21"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="103"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="114"/>
       <c r="F28" s="8"/>
     </row>
     <row r="29" spans="1:16" ht="25.5" customHeight="1">
       <c r="B29" s="20"/>
       <c r="C29" s="21"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="103"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="114"/>
       <c r="F29" s="8"/>
     </row>
     <row r="30" spans="1:16" ht="25.5" customHeight="1">
       <c r="B30" s="20"/>
       <c r="C30" s="21"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="103"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
       <c r="F30" s="8"/>
     </row>
     <row r="31" spans="1:16" ht="25.5" customHeight="1">
       <c r="B31" s="20"/>
       <c r="C31" s="21"/>
-      <c r="D31" s="103"/>
-      <c r="E31" s="103"/>
+      <c r="D31" s="114"/>
+      <c r="E31" s="114"/>
       <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:16" ht="25.5" customHeight="1">
       <c r="B32" s="20"/>
       <c r="C32" s="21"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="103"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
       <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:13" ht="25.5" customHeight="1">
       <c r="B33" s="20"/>
       <c r="C33" s="21"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="103"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="114"/>
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:13" ht="25.5" customHeight="1">
       <c r="B34" s="20"/>
       <c r="C34" s="21"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="103"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="114"/>
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:13" ht="25.5" customHeight="1" thickBot="1">
       <c r="B35" s="22"/>
       <c r="C35" s="23"/>
-      <c r="D35" s="104"/>
-      <c r="E35" s="104"/>
+      <c r="D35" s="115"/>
+      <c r="E35" s="115"/>
       <c r="F35" s="11"/>
     </row>
     <row r="36" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1">
@@ -2874,56 +2837,56 @@
     </row>
     <row r="38" spans="1:13" ht="30" customHeight="1" thickBot="1"/>
     <row r="39" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B39" s="100" t="s">
+      <c r="B39" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="100"/>
-      <c r="D39" s="100"/>
-      <c r="E39" s="100"/>
-      <c r="F39" s="100"/>
+      <c r="C39" s="110"/>
+      <c r="D39" s="110"/>
+      <c r="E39" s="110"/>
+      <c r="F39" s="110"/>
     </row>
     <row r="40" spans="1:13" ht="25.5" customHeight="1" thickTop="1">
-      <c r="B40" s="97" t="s">
+      <c r="B40" s="119" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="119"/>
+      <c r="D40" s="119"/>
+      <c r="E40" s="119"/>
+      <c r="F40" s="119"/>
+    </row>
+    <row r="41" spans="1:13" ht="25.5" customHeight="1">
+      <c r="B41" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="97"/>
-      <c r="D40" s="97"/>
-      <c r="E40" s="97"/>
-      <c r="F40" s="97"/>
-    </row>
-    <row r="41" spans="1:13" ht="25.5" customHeight="1">
-      <c r="B41" s="98" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" s="98"/>
-      <c r="D41" s="98"/>
-      <c r="E41" s="98"/>
-      <c r="F41" s="98"/>
+      <c r="C41" s="118"/>
+      <c r="D41" s="118"/>
+      <c r="E41" s="118"/>
+      <c r="F41" s="118"/>
       <c r="J41" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="25.5" customHeight="1">
-      <c r="B42" s="98"/>
-      <c r="C42" s="98"/>
-      <c r="D42" s="98"/>
-      <c r="E42" s="98"/>
-      <c r="F42" s="98"/>
+      <c r="B42" s="118"/>
+      <c r="C42" s="118"/>
+      <c r="D42" s="118"/>
+      <c r="E42" s="118"/>
+      <c r="F42" s="118"/>
     </row>
     <row r="43" spans="1:13" ht="25.5" customHeight="1">
-      <c r="B43" s="98"/>
-      <c r="C43" s="98"/>
-      <c r="D43" s="98"/>
-      <c r="E43" s="98"/>
-      <c r="F43" s="98"/>
+      <c r="B43" s="118"/>
+      <c r="C43" s="118"/>
+      <c r="D43" s="118"/>
+      <c r="E43" s="118"/>
+      <c r="F43" s="118"/>
       <c r="G43" s="24"/>
     </row>
     <row r="44" spans="1:13" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B44" s="99"/>
-      <c r="C44" s="99"/>
-      <c r="D44" s="99"/>
-      <c r="E44" s="99"/>
-      <c r="F44" s="99"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="111"/>
+      <c r="F44" s="111"/>
     </row>
     <row r="45" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="A45" s="25"/>
@@ -3239,18 +3202,11 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B44:F44"/>
     <mergeCell ref="B39:F39"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="D26:E26"/>
@@ -3265,11 +3221,18 @@
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:D20"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="3.937007874015748E-2" bottom="3.937007874015748E-2" header="0" footer="0"/>
@@ -3304,56 +3267,56 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1">
-      <c r="A3" s="119"/>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
+      <c r="A3" s="124"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
     </row>
     <row r="4" spans="1:10" s="45" customFormat="1" ht="20.25">
-      <c r="A4" s="120" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
+      <c r="A4" s="125" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
     </row>
     <row r="5" spans="1:10" s="45" customFormat="1" ht="20.25">
-      <c r="A5" s="120" t="s">
+      <c r="A5" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="120"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
     </row>
     <row r="6" spans="1:10" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A6" s="112"/>
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="112"/>
+      <c r="A6" s="109"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
     </row>
     <row r="7" spans="1:10" ht="15" thickTop="1"/>
     <row r="8" spans="1:10" ht="15" thickBot="1">
@@ -3393,31 +3356,31 @@
       </c>
     </row>
     <row r="10" spans="1:10" s="36" customFormat="1" ht="37.5" customHeight="1">
-      <c r="B10" s="127" t="s">
+      <c r="B10" s="122" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="98" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="98" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="98" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="99">
+        <v>44972</v>
+      </c>
+      <c r="G10" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="125" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="125" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="125" t="s">
-        <v>88</v>
-      </c>
-      <c r="F10" s="126">
-        <v>44972</v>
-      </c>
-      <c r="G10" s="125" t="s">
+      <c r="H10" s="98" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="125" t="s">
-        <v>57</v>
-      </c>
       <c r="I10" s="46"/>
     </row>
     <row r="11" spans="1:10" s="36" customFormat="1" ht="42" customHeight="1">
-      <c r="B11" s="128"/>
+      <c r="B11" s="123"/>
       <c r="C11" s="47"/>
       <c r="D11" s="47"/>
       <c r="E11" s="47"/>
@@ -3427,7 +3390,7 @@
       <c r="I11" s="48"/>
     </row>
     <row r="12" spans="1:10" customFormat="1" ht="15">
-      <c r="B12" s="118"/>
+      <c r="B12" s="121"/>
       <c r="C12" s="47"/>
       <c r="D12" s="47"/>
       <c r="E12" s="47"/>
@@ -3437,7 +3400,7 @@
       <c r="I12" s="48"/>
     </row>
     <row r="13" spans="1:10" customFormat="1" ht="51.75" customHeight="1">
-      <c r="B13" s="118"/>
+      <c r="B13" s="121"/>
       <c r="C13" s="47"/>
       <c r="D13" s="47"/>
       <c r="E13" s="47"/>
@@ -3447,7 +3410,7 @@
       <c r="I13" s="48"/>
     </row>
     <row r="14" spans="1:10" customFormat="1" ht="43.5" customHeight="1">
-      <c r="B14" s="117"/>
+      <c r="B14" s="120"/>
       <c r="C14" s="47"/>
       <c r="D14" s="47"/>
       <c r="E14" s="47"/>
@@ -3457,7 +3420,7 @@
       <c r="I14" s="50"/>
     </row>
     <row r="15" spans="1:10" customFormat="1" ht="27" customHeight="1">
-      <c r="B15" s="118"/>
+      <c r="B15" s="121"/>
       <c r="C15" s="47"/>
       <c r="D15" s="49"/>
       <c r="E15" s="47"/>
@@ -3679,67 +3642,67 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
     </row>
     <row r="7" spans="1:11" ht="30">
-      <c r="A7" s="108" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="109"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="109"/>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110"/>
+      <c r="A7" s="105" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="107"/>
     </row>
     <row r="8" spans="1:11" ht="30">
-      <c r="A8" s="108" t="s">
+      <c r="A8" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="109"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="110"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="107"/>
     </row>
     <row r="10" spans="1:11" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="112"/>
-      <c r="B10" s="112"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="112"/>
+      <c r="A10" s="109"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickTop="1"/>
     <row r="12" spans="1:11" ht="315" customHeight="1">
       <c r="A12" s="67"/>
       <c r="B12" s="73"/>
       <c r="C12" s="75" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="68"/>
       <c r="F12" s="4"/>
@@ -3749,7 +3712,7 @@
       <c r="A14" s="69"/>
       <c r="B14" s="74"/>
       <c r="C14" s="83" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" s="66"/>
     </row>
@@ -3757,7 +3720,7 @@
       <c r="A15" s="29"/>
       <c r="B15" s="71"/>
       <c r="C15" s="76" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="72"/>
       <c r="E15" s="29"/>
@@ -3778,11 +3741,11 @@
     <row r="17" spans="1:11" s="1" customFormat="1" ht="347.25" customHeight="1">
       <c r="A17" s="29"/>
       <c r="B17" s="82" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="24"/>
       <c r="D17" s="81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G17" s="24"/>
       <c r="K17" s="13"/>
@@ -3802,11 +3765,11 @@
     <row r="20" spans="1:11" s="1" customFormat="1" ht="408.75" customHeight="1">
       <c r="A20" s="29"/>
       <c r="B20" s="79" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C20" s="24"/>
       <c r="D20" s="80" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
@@ -3837,7 +3800,7 @@
     <row r="25" spans="1:11" s="1" customFormat="1" ht="408.75" customHeight="1">
       <c r="A25" s="29"/>
       <c r="B25" s="78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
@@ -3945,7 +3908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EFBBE6A-A47C-4952-B0C4-83E586E9280F}">
   <dimension ref="A2:K41"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="37" zoomScaleNormal="37" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B12" zoomScale="37" zoomScaleNormal="37" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:K7"/>
     </sheetView>
   </sheetViews>
@@ -3968,67 +3931,67 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
     </row>
     <row r="7" spans="1:11" ht="30">
-      <c r="A7" s="108" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="109"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="109"/>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110"/>
+      <c r="A7" s="105" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="107"/>
     </row>
     <row r="8" spans="1:11" ht="30">
-      <c r="A8" s="108" t="s">
+      <c r="A8" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="109"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="110"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="107"/>
     </row>
     <row r="10" spans="1:11" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="112"/>
-      <c r="B10" s="112"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="112"/>
+      <c r="A10" s="109"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickTop="1"/>
     <row r="12" spans="1:11" ht="315" customHeight="1">
       <c r="A12" s="67"/>
       <c r="B12" s="73"/>
       <c r="C12" s="75" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="68"/>
       <c r="F12" s="4"/>
@@ -4037,22 +4000,22 @@
     <row r="14" spans="1:11" ht="409.5" customHeight="1">
       <c r="A14" s="69"/>
       <c r="B14" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="84" t="s">
+      <c r="D14" s="84" t="s">
         <v>63</v>
-      </c>
-      <c r="D14" s="84" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" ht="356.25" customHeight="1">
       <c r="A15" s="29"/>
       <c r="B15" s="86" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="87" t="s">
         <v>65</v>
-      </c>
-      <c r="C15" s="87" t="s">
-        <v>66</v>
       </c>
       <c r="D15" s="72"/>
       <c r="E15" s="29"/>
@@ -4074,7 +4037,7 @@
       <c r="A17" s="29"/>
       <c r="B17" s="82"/>
       <c r="C17" s="95" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" s="81"/>
       <c r="G17" s="24"/>
@@ -4095,13 +4058,13 @@
     <row r="20" spans="1:11" s="1" customFormat="1" ht="408.75" customHeight="1">
       <c r="A20" s="88"/>
       <c r="B20" s="93" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" s="89" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="94" t="s">
         <v>77</v>
-      </c>
-      <c r="D20" s="94" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
@@ -4133,10 +4096,10 @@
       <c r="A25" s="90"/>
       <c r="B25" s="91"/>
       <c r="C25" s="92" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="72" t="s">
         <v>79</v>
-      </c>
-      <c r="D25" s="72" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
@@ -4268,60 +4231,60 @@
       <c r="F2" s="2"/>
     </row>
     <row r="5" spans="1:257">
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
     </row>
     <row r="6" spans="1:257">
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
     </row>
     <row r="7" spans="1:257" ht="30">
-      <c r="A7" s="108" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="109"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="109"/>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110"/>
+      <c r="A7" s="105" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="107"/>
     </row>
     <row r="8" spans="1:257" ht="30">
-      <c r="A8" s="108" t="s">
+      <c r="A8" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="109"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="110"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="107"/>
     </row>
     <row r="10" spans="1:257" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="112"/>
-      <c r="B10" s="112"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="112"/>
+      <c r="A10" s="109"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
     </row>
     <row r="11" spans="1:257" ht="15" thickTop="1"/>
     <row r="12" spans="1:257">
@@ -4329,7 +4292,7 @@
     </row>
     <row r="14" spans="1:257" ht="22.5">
       <c r="B14" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="57"/>
       <c r="D14" s="57"/>
@@ -4338,7 +4301,7 @@
     <row r="15" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A15" s="29"/>
       <c r="B15" s="58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="59"/>
       <c r="D15" s="59"/>
@@ -4352,7 +4315,7 @@
     <row r="16" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A16" s="29"/>
       <c r="B16" s="59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="59"/>
       <c r="D16" s="59"/>
@@ -4366,7 +4329,7 @@
     <row r="17" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A17" s="29"/>
       <c r="B17" s="58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="59"/>
       <c r="D17" s="59"/>
@@ -4379,7 +4342,7 @@
     <row r="18" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A18" s="29"/>
       <c r="B18" s="59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="59"/>
       <c r="D18" s="59"/>
@@ -4391,7 +4354,7 @@
     <row r="19" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A19" s="29"/>
       <c r="B19" s="58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="59"/>
       <c r="D19" s="59"/>
@@ -4401,7 +4364,7 @@
     <row r="20" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A20" s="29"/>
       <c r="B20" s="59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="59"/>
       <c r="D20" s="59"/>
@@ -4411,7 +4374,7 @@
     <row r="21" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A21" s="29"/>
       <c r="B21" s="58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="59"/>
       <c r="D21" s="59"/>
@@ -4421,7 +4384,7 @@
     <row r="22" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A22" s="29"/>
       <c r="B22" s="59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="59"/>
       <c r="D22" s="59"/>
@@ -4431,7 +4394,7 @@
     <row r="23" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A23" s="29"/>
       <c r="B23" s="58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="59"/>
       <c r="D23" s="59"/>
@@ -4441,7 +4404,7 @@
     <row r="24" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A24" s="29"/>
       <c r="B24" s="59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="59"/>
       <c r="D24" s="59"/>
@@ -4467,7 +4430,7 @@
     <row r="27" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A27" s="29"/>
       <c r="B27" s="58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C27" s="59"/>
       <c r="D27" s="59"/>
@@ -4476,7 +4439,7 @@
     </row>
     <row r="28" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B28" s="59" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28" s="59"/>
       <c r="D28" s="59"/>
@@ -4485,7 +4448,7 @@
     </row>
     <row r="29" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B29" s="58" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" s="59"/>
       <c r="D29" s="59"/>
@@ -4494,7 +4457,7 @@
     </row>
     <row r="30" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B30" s="59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" s="59"/>
       <c r="D30" s="59"/>
@@ -4503,7 +4466,7 @@
     </row>
     <row r="31" spans="1:257" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="B31" s="58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C31" s="59"/>
       <c r="D31" s="59"/>
@@ -4596,7 +4559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:IV41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="41" zoomScaleNormal="41" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="41" zoomScaleNormal="41" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:K8"/>
     </sheetView>
   </sheetViews>
@@ -4639,56 +4602,56 @@
       <c r="IV4" s="1"/>
     </row>
     <row r="5" spans="1:256">
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
       <c r="IT5" s="1"/>
       <c r="IU5" s="1"/>
       <c r="IV5" s="1"/>
     </row>
     <row r="6" spans="1:256">
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
       <c r="IT6" s="1"/>
       <c r="IU6" s="1"/>
       <c r="IV6" s="1"/>
     </row>
     <row r="7" spans="1:256" ht="30">
-      <c r="A7" s="122" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="124"/>
+      <c r="A7" s="126" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="127"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="127"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="127"/>
+      <c r="K7" s="128"/>
       <c r="IT7" s="1"/>
       <c r="IU7" s="1"/>
       <c r="IV7" s="1"/>
     </row>
     <row r="8" spans="1:256" ht="30">
-      <c r="A8" s="122" t="s">
+      <c r="A8" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="123"/>
-      <c r="C8" s="123"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="124"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="127"/>
+      <c r="G8" s="127"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="127"/>
+      <c r="J8" s="127"/>
+      <c r="K8" s="128"/>
       <c r="IT8" s="1"/>
       <c r="IU8" s="1"/>
       <c r="IV8" s="1"/>
@@ -4699,17 +4662,17 @@
       <c r="IV9" s="1"/>
     </row>
     <row r="10" spans="1:256" s="44" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A10" s="112"/>
-      <c r="B10" s="112"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="112"/>
+      <c r="A10" s="109"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
     </row>
     <row r="11" spans="1:256" ht="15" thickTop="1">
       <c r="IT11" s="1"/>
@@ -4720,8 +4683,8 @@
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:256" ht="409.5">
-      <c r="B13" s="121" t="s">
-        <v>85</v>
+      <c r="B13" s="97" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:256" s="1" customFormat="1" ht="19.899999999999999" customHeight="1">
